--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>lcx_av_cinema -“lcx的av电影站” -项目进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -181,6 +181,14 @@
   </si>
   <si>
     <t>banner 导航栏 相关网站图片、轮播图图片替换、台湾SWAG、国产系列、韩国激情、欧美情色、短视频、页脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改事项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每个模块视频盒子从15增加到20（保持偶数优化移动端显示）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -461,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +507,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -531,6 +542,9 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -820,10 +834,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,16 +853,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -955,40 +969,40 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
@@ -1075,42 +1089,56 @@
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
     </row>
     <row r="12" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H13"/>

--- a/doc/项目进度.xlsx
+++ b/doc/项目进度.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="39">
   <si>
     <t>lcx_av_cinema -“lcx的av电影站” -项目进度</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>→CLOT-020后剩余视频资源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>筛选功能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -112,23 +108,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>图片建设、筛选功能、视频建设 、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完全响应式布局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>未开始</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>图片建设、筛选功能、视频建设 、</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完全响应式布局</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当前进度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>→日本番号模块</t>
+    <t>进度障碍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝色标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看大图模态框</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ifame标签显示下，fixed布局位置异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视频播放区</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -136,59 +160,22 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度障碍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蓝色标记</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>查看大图模态框</t>
+    <t>修改事项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>完成</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ifame标签显示下，fixed布局位置异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>视频播放区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner 导航栏 相关网站图片、轮播图图片替换、台湾SWAG、国产系列、韩国激情、欧美情色、短视频、页脚</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改事项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每个模块视频盒子从15增加到20（保持偶数优化移动端显示）</t>
+  </si>
+  <si>
+    <t>主页韩国激情、欧美情色、短视频、页脚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">视频建设 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,6 +494,9 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -542,9 +532,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,7 +824,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,16 +840,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -898,22 +885,22 @@
         <v>10</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -924,22 +911,22 @@
         <v>12</v>
       </c>
       <c r="C4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>21</v>
-      </c>
       <c r="H4" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
@@ -953,112 +940,112 @@
         <v>17</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G6" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H6" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
     <row r="7" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
+      <c r="A7" s="21"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>22</v>
+      <c r="D8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>19</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>16</v>
@@ -1067,72 +1054,70 @@
         <v>16</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="25"/>
     </row>
     <row r="12" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="16"/>
+        <v>23</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
     </row>
     <row r="13" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="16"/>
+        <v>25</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
     </row>
     <row r="14" spans="1:8" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
       <c r="E14" s="12"/>
